--- a/public/contenido-sig/archivos/Departamento de Servicios Administrativos y TÃ©cnicos/Procedimiento para la EvaluaciÃ³n de Proveedores/Listado de calificacion de Proveedores de Bienes y Servicios.xlsx
+++ b/public/contenido-sig/archivos/Departamento de Servicios Administrativos y TÃ©cnicos/Procedimiento para la EvaluaciÃ³n de Proveedores/Listado de calificacion de Proveedores de Bienes y Servicios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTO\Documents\CMPL 2015\SIG\SIG\Nuevo SIG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-255" yWindow="195" windowWidth="11880" windowHeight="5520"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Listado de provedores Aprobados'!$A$1:$W$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -272,7 +267,7 @@
     <t>LISTADO DE CALIFICACIÓN DE PROVEEDORES DE BIENES Y SERVICIOS</t>
   </si>
   <si>
-    <t>F-JA-LIST_PROV</t>
+    <t>F-JA-L_PROOV</t>
   </si>
 </sst>
 </file>
@@ -656,193 +651,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,6 +667,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -870,11 +715,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,7 +1370,7 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="S27" sqref="S27:W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,78 +1388,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O3" s="4"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="100" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="101"/>
-      <c r="V3" s="103" t="s">
+      <c r="U3" s="51"/>
+      <c r="V3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="102"/>
-      <c r="X3" s="90"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="30"/>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1472,65 +1467,65 @@
         <v>74</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="100" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103" t="s">
+      <c r="U4" s="52"/>
+      <c r="V4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="102"/>
-      <c r="X4" s="90"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="30"/>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="100" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="102"/>
-      <c r="V5" s="103" t="s">
+      <c r="U5" s="52"/>
+      <c r="V5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="102"/>
-      <c r="X5" s="90"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1545,18 +1540,18 @@
       <c r="K6" s="3"/>
       <c r="O6" s="4"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="100" t="s">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="102"/>
-      <c r="V6" s="103" t="s">
+      <c r="U6" s="52"/>
+      <c r="V6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="102"/>
-      <c r="X6" s="90"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="30"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -1579,15 +1574,15 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -1612,9 +1607,9 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1630,49 +1625,49 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="34" t="s">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="30" t="s">
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30" t="s">
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30" t="s">
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42" t="s">
         <v>7</v>
       </c>
       <c r="Y9" s="1"/>
@@ -1685,10 +1680,10 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="8">
         <v>0.2</v>
       </c>
@@ -1743,7 +1738,7 @@
       <c r="V10" s="8">
         <v>0</v>
       </c>
-      <c r="W10" s="30"/>
+      <c r="W10" s="42"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -1753,436 +1748,436 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93">
+    <row r="11" spans="1:32" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="94"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="98"/>
-    </row>
-    <row r="12" spans="1:32" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="32"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+    </row>
+    <row r="12" spans="1:32" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="94"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
-    </row>
-    <row r="13" spans="1:32" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="32"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+    </row>
+    <row r="13" spans="1:32" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>3</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="94"/>
-    </row>
-    <row r="14" spans="1:32" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="32"/>
+    </row>
+    <row r="14" spans="1:32" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="94"/>
-    </row>
-    <row r="15" spans="1:32" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="32"/>
+    </row>
+    <row r="15" spans="1:32" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="94"/>
-    </row>
-    <row r="16" spans="1:32" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="32"/>
+    </row>
+    <row r="16" spans="1:32" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>6</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="94"/>
-    </row>
-    <row r="17" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="32"/>
+    </row>
+    <row r="17" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>7</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="94"/>
-    </row>
-    <row r="18" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93">
+      <c r="B17" s="37"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="32"/>
+    </row>
+    <row r="18" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>8</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="94"/>
-    </row>
-    <row r="19" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93">
+      <c r="B18" s="32"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="32"/>
+    </row>
+    <row r="19" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>9</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="94"/>
-    </row>
-    <row r="20" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93">
+      <c r="B19" s="32"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="32"/>
+    </row>
+    <row r="20" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>10</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="94"/>
-    </row>
-    <row r="21" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
+      <c r="B20" s="32"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="32"/>
+    </row>
+    <row r="21" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>11</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="94"/>
-    </row>
-    <row r="22" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="32"/>
+    </row>
+    <row r="22" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>12</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="94"/>
-    </row>
-    <row r="23" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="32"/>
+    </row>
+    <row r="23" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>13</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="94"/>
-    </row>
-    <row r="24" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+      <c r="B23" s="32"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="32"/>
+    </row>
+    <row r="24" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>14</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="94"/>
-    </row>
-    <row r="25" spans="1:23" s="97" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93">
+      <c r="B24" s="32"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="32"/>
+    </row>
+    <row r="25" spans="1:23" s="35" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>15</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="94"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="32"/>
     </row>
     <row r="26" spans="1:23" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S27" s="92" t="s">
+      <c r="S27" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2240,273 +2235,273 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="C7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="44">
+      <c r="C10" s="58"/>
+      <c r="D10" s="60">
         <v>0.3</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="44">
+      <c r="G10" s="58"/>
+      <c r="H10" s="60">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="45"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="61"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="45"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="61"/>
+      <c r="F12" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="44">
+      <c r="G12" s="58"/>
+      <c r="H12" s="60">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60">
         <v>0.15</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="45"/>
-      <c r="F14" s="42" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="61"/>
+      <c r="F14" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="44">
+      <c r="G14" s="58"/>
+      <c r="H14" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="45"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="61"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="45"/>
-      <c r="F18" s="47" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="61"/>
+      <c r="F18" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="F20" s="46" t="s">
+      <c r="C20" s="63"/>
+      <c r="F20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44">
+      <c r="G21" s="58"/>
+      <c r="H21" s="60">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="45"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="2:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="44">
+      <c r="C23" s="58"/>
+      <c r="D23" s="60">
         <v>0.25</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="45"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="44"/>
-      <c r="F24" s="42" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="F24" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44">
+      <c r="G24" s="59"/>
+      <c r="H24" s="60">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="44">
+      <c r="C25" s="58"/>
+      <c r="D25" s="60">
         <v>0.15</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="45"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="44"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="45"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="44">
+      <c r="C27" s="58"/>
+      <c r="D27" s="60">
         <v>0</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44">
+      <c r="G27" s="59"/>
+      <c r="H27" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="44"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="45"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="60"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="45"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2515,90 +2510,90 @@
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="40"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="44">
+      <c r="C33" s="58"/>
+      <c r="D33" s="60">
         <v>0.1</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="44"/>
-      <c r="F34" s="41" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="60"/>
+      <c r="F34" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="44">
+      <c r="C35" s="58"/>
+      <c r="D35" s="60">
         <v>0.05</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="44"/>
-      <c r="F36" s="41" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="60"/>
+      <c r="F36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="41"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="44">
+      <c r="C37" s="58"/>
+      <c r="D37" s="60">
         <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="44"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2671,54 +2666,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2729,11 +2724,11 @@
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
@@ -2767,161 +2762,161 @@
       <c r="D19" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="76" t="s">
+      <c r="D28" s="89"/>
+      <c r="E28" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="75"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="91"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
     </row>
     <row r="31" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
     </row>
     <row r="33" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="69"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
     </row>
     <row r="39" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="60"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="76"/>
     </row>
     <row r="41" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2935,32 +2930,32 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="27"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
     </row>
     <row r="47" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2974,52 +2969,52 @@
       </c>
     </row>
     <row r="49" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
     </row>
     <row r="57" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="22"/>
